--- a/downloaded_files/EPES402_Tutorial-35436.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35436.xlsx
@@ -75,13 +75,13 @@
     <x:t>اسماعيل محمد محمد اشرف شهدى احمد فريد</x:t>
   </x:si>
   <x:si>
-    <x:t>1210407</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الاء محمود الحسين عبدالعال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alaa Mahmoud Elhussein Abdelaal</x:t>
+    <x:t>1220005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جلوريا ايمن يوسف يعقوب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gloria Ayman</x:t>
   </x:si>
   <x:si>
     <x:t>4230148</x:t>
@@ -138,6 +138,15 @@
     <x:t>Steven Sameh Daniel Ghabrial Beshai</x:t>
   </x:si>
   <x:si>
+    <x:t>4240024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن حاتم مغاورى عوض عمران</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Abdelrahman Hatem Maghawry awad Omran </x:t>
+  </x:si>
+  <x:si>
     <x:t>1220128</x:t>
   </x:si>
   <x:si>
@@ -217,15 +226,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Yusef Elsayed Elsheshe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم مجدى محمد احمد ايوب</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Mariam Magdy Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>4220143</x:t>
@@ -914,7 +914,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45927.4622378472</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1138,7 +1138,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45927.4168871875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1170,7 +1170,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1202,7 +1202,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1234,7 +1234,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1266,7 +1266,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7491577199</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1298,7 +1298,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45912.7491577199</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1330,7 +1330,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1362,7 +1362,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1394,7 +1394,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1426,7 +1426,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6649126968</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>

--- a/downloaded_files/EPES402_Tutorial-35436.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35436.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,12 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Eslam Yousef Ahmed Ahmed Mohamed ElKorashy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسماعيل محمد محمد اشرف شهدى احمد فريد</x:t>
   </x:si>
   <x:si>
     <x:t>1220005</x:t>
@@ -365,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -665,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -880,9 +874,11 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.5845413194</x:v>
+        <x:v>45927.4622378472</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -905,16 +901,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C7" s="2" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.4622378472</x:v>
+        <x:v>45907.4145679398</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -937,16 +933,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4145679398</x:v>
+        <x:v>45907.4187650116</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -969,16 +965,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="2" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4187650116</x:v>
+        <x:v>45912.7479954861</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1001,16 +997,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.7479954861</x:v>
+        <x:v>45912.7488066319</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1033,16 +1029,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.7488066319</x:v>
+        <x:v>45907.4157397338</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1065,16 +1061,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4157397338</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1097,16 +1093,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45927.4168871875</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1129,16 +1125,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4168871875</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1161,16 +1157,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1193,16 +1189,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1225,16 +1221,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1257,16 +1253,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45912.7491577199</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1289,16 +1285,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.7491577199</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1321,16 +1317,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1353,16 +1349,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1385,16 +1381,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1417,16 +1413,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
+      <x:c r="D23" s="2" t="s"/>
       <x:c r="E23" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1454,9 +1448,11 @@
       <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="D24" s="2" t="s"/>
+      <x:c r="D24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45912.7501361458</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1479,16 +1475,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45912.7501361458</x:v>
+        <x:v>45906.6645900463</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1505,38 +1501,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.6645900463</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES402_Tutorial-35436.xlsx
+++ b/downloaded_files/EPES402_Tutorial-35436.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Sara Mohamed Mostafa Zohir</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساره احمد عبد الفتاح محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sara ahmed abdelfattah mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220172</x:t>
@@ -359,7 +368,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -659,7 +668,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1038,7 +1047,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4157397338</x:v>
+        <x:v>45907.4332514236</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1070,7 +1079,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6679646991</x:v>
+        <x:v>45907.4157397338</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1102,7 +1111,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4168871875</x:v>
+        <x:v>45906.6679646991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1134,7 +1143,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4143798958</x:v>
+        <x:v>45927.4168871875</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1166,7 +1175,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4143798958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1198,7 +1207,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.417458912</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1230,7 +1239,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45907.417458912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1262,7 +1271,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.7491577199</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1294,7 +1303,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4170444097</x:v>
+        <x:v>45912.7491577199</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1326,7 +1335,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6649875347</x:v>
+        <x:v>45907.4170444097</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1358,7 +1367,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6656438657</x:v>
+        <x:v>45906.6649875347</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1390,7 +1399,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6656438657</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1418,9 +1427,11 @@
       <x:c r="C23" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="D23" s="2" t="s"/>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1443,16 +1454,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
       </x:c>
+      <x:c r="D24" s="2" t="s"/>
       <x:c r="E24" s="3">
-        <x:v>45912.7501361458</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645900463</x:v>
+        <x:v>45912.7501361458</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1501,6 +1510,38 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45906.6645900463</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
